--- a/REGULAR/CPDO/JAVIER, MAYLENNE MAILEG.xlsx
+++ b/REGULAR/CPDO/JAVIER, MAYLENNE MAILEG.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="281">
   <si>
     <t>PERIOD</t>
   </si>
@@ -813,22 +813,70 @@
     <t>UT(0-3-15)</t>
   </si>
   <si>
-    <t>12/1,12,14,15,20/2023</t>
-  </si>
-  <si>
     <t>A(4-0-0)</t>
   </si>
   <si>
-    <t>12/22,23,27,29/2023</t>
-  </si>
-  <si>
     <t>A(5-0-0)</t>
   </si>
   <si>
-    <t>11/2,4,14,17,24/2023</t>
-  </si>
-  <si>
     <t>UT(0-2-45)</t>
+  </si>
+  <si>
+    <t>A(6-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-5)</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-2-56)</t>
+  </si>
+  <si>
+    <t>UT(0-4-9)</t>
+  </si>
+  <si>
+    <t>UT(6-0-0)</t>
+  </si>
+  <si>
+    <t>5/10,16,17,31/2022</t>
+  </si>
+  <si>
+    <t>6/1-3,9,10,16/2022</t>
+  </si>
+  <si>
+    <t>9/12,14,19/2022</t>
+  </si>
+  <si>
+    <t>10/3,5,11,13,27,28/2022</t>
+  </si>
+  <si>
+    <t>11/2,4,14,17,24/2022</t>
+  </si>
+  <si>
+    <t>12/1,12,14,15,20/2022</t>
+  </si>
+  <si>
+    <t>12/22,23,27,29/2022</t>
+  </si>
+  <si>
+    <t>UT(0-5-9)</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(1-1-8)</t>
+  </si>
+  <si>
+    <t>A(2-0-0)</t>
+  </si>
+  <si>
+    <t>3/22,28/2022</t>
+  </si>
+  <si>
+    <t>UT(0-3-57)</t>
   </si>
 </sst>
 </file>
@@ -3235,8 +3283,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K404" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K404"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K409" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K409"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3614,12 +3662,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K404"/>
+  <dimension ref="A2:K409"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4245" topLeftCell="A334" activePane="bottomLeft"/>
+      <pane ySplit="4245" topLeftCell="A325" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E349" sqref="E349"/>
+      <selection pane="bottomLeft" activeCell="E338" sqref="E338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3782,7 +3830,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>61.34499999999997</v>
+        <v>36.168999999999926</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -11088,11 +11136,15 @@
       <c r="A331" s="40">
         <v>44621</v>
       </c>
-      <c r="B331" s="20"/>
+      <c r="B331" s="20" t="s">
+        <v>278</v>
+      </c>
       <c r="C331" s="13">
         <v>1.25</v>
       </c>
-      <c r="D331" s="39"/>
+      <c r="D331" s="39">
+        <v>2</v>
+      </c>
       <c r="E331" s="9"/>
       <c r="F331" s="20"/>
       <c r="G331" s="13">
@@ -11102,22 +11154,24 @@
       <c r="H331" s="39"/>
       <c r="I331" s="9"/>
       <c r="J331" s="11"/>
-      <c r="K331" s="20"/>
+      <c r="K331" s="20" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A332" s="40">
-        <v>44652</v>
-      </c>
-      <c r="B332" s="20"/>
-      <c r="C332" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D332" s="39"/>
+      <c r="A332" s="40"/>
+      <c r="B332" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C332" s="13"/>
+      <c r="D332" s="39">
+        <v>0.49399999999999999</v>
+      </c>
       <c r="E332" s="9"/>
       <c r="F332" s="20"/>
-      <c r="G332" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G332" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H332" s="39"/>
       <c r="I332" s="9"/>
@@ -11126,13 +11180,17 @@
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
-        <v>44682</v>
-      </c>
-      <c r="B333" s="20"/>
+        <v>44652</v>
+      </c>
+      <c r="B333" s="20" t="s">
+        <v>276</v>
+      </c>
       <c r="C333" s="13">
         <v>1.25</v>
       </c>
-      <c r="D333" s="39"/>
+      <c r="D333" s="39">
+        <v>1</v>
+      </c>
       <c r="E333" s="9"/>
       <c r="F333" s="20"/>
       <c r="G333" s="13">
@@ -11142,37 +11200,43 @@
       <c r="H333" s="39"/>
       <c r="I333" s="9"/>
       <c r="J333" s="11"/>
-      <c r="K333" s="20"/>
+      <c r="K333" s="51">
+        <v>44664</v>
+      </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A334" s="40">
-        <v>44713</v>
-      </c>
-      <c r="B334" s="20"/>
-      <c r="C334" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D334" s="39"/>
+      <c r="A334" s="40"/>
+      <c r="B334" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C334" s="13"/>
+      <c r="D334" s="39">
+        <v>1.1419999999999999</v>
+      </c>
       <c r="E334" s="9"/>
       <c r="F334" s="20"/>
-      <c r="G334" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G334" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H334" s="39"/>
       <c r="I334" s="9"/>
       <c r="J334" s="11"/>
-      <c r="K334" s="20"/>
+      <c r="K334" s="51"/>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B335" s="20"/>
+        <v>44682</v>
+      </c>
+      <c r="B335" s="20" t="s">
+        <v>259</v>
+      </c>
       <c r="C335" s="13">
         <v>1.25</v>
       </c>
-      <c r="D335" s="39"/>
+      <c r="D335" s="39">
+        <v>4</v>
+      </c>
       <c r="E335" s="9"/>
       <c r="F335" s="20"/>
       <c r="G335" s="13">
@@ -11182,22 +11246,24 @@
       <c r="H335" s="39"/>
       <c r="I335" s="9"/>
       <c r="J335" s="11"/>
-      <c r="K335" s="20"/>
+      <c r="K335" s="20" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A336" s="40">
-        <v>44774</v>
-      </c>
-      <c r="B336" s="20"/>
-      <c r="C336" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D336" s="39"/>
+      <c r="A336" s="40"/>
+      <c r="B336" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="C336" s="13"/>
+      <c r="D336" s="39">
+        <v>0.64400000000000002</v>
+      </c>
       <c r="E336" s="9"/>
       <c r="F336" s="20"/>
-      <c r="G336" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G336" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H336" s="39"/>
       <c r="I336" s="9"/>
@@ -11206,13 +11272,17 @@
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
-        <v>44805</v>
-      </c>
-      <c r="B337" s="20"/>
+        <v>44713</v>
+      </c>
+      <c r="B337" s="20" t="s">
+        <v>267</v>
+      </c>
       <c r="C337" s="13">
         <v>1.25</v>
       </c>
-      <c r="D337" s="39"/>
+      <c r="D337" s="39">
+        <v>6</v>
+      </c>
       <c r="E337" s="9"/>
       <c r="F337" s="20"/>
       <c r="G337" s="13">
@@ -11222,17 +11292,23 @@
       <c r="H337" s="39"/>
       <c r="I337" s="9"/>
       <c r="J337" s="11"/>
-      <c r="K337" s="20"/>
+      <c r="K337" s="20" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
-        <v>44835</v>
-      </c>
-      <c r="B338" s="20"/>
+        <v>44743</v>
+      </c>
+      <c r="B338" s="20" t="s">
+        <v>266</v>
+      </c>
       <c r="C338" s="13">
         <v>1.25</v>
       </c>
-      <c r="D338" s="39"/>
+      <c r="D338" s="39">
+        <v>0.51900000000000002</v>
+      </c>
       <c r="E338" s="9"/>
       <c r="F338" s="20"/>
       <c r="G338" s="13">
@@ -11246,17 +11322,13 @@
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B339" s="20" t="s">
-        <v>262</v>
-      </c>
+        <v>44774</v>
+      </c>
+      <c r="B339" s="20"/>
       <c r="C339" s="13">
         <v>1.25</v>
       </c>
-      <c r="D339" s="39">
-        <v>5</v>
-      </c>
+      <c r="D339" s="39"/>
       <c r="E339" s="9"/>
       <c r="F339" s="20"/>
       <c r="G339" s="13">
@@ -11266,86 +11338,88 @@
       <c r="H339" s="39"/>
       <c r="I339" s="9"/>
       <c r="J339" s="11"/>
-      <c r="K339" s="20" t="s">
-        <v>263</v>
-      </c>
+      <c r="K339" s="20"/>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A340" s="40"/>
+      <c r="A340" s="40">
+        <v>44805</v>
+      </c>
       <c r="B340" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="C340" s="13"/>
+      <c r="C340" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D340" s="39">
-        <v>0.34399999999999997</v>
+        <v>3</v>
       </c>
       <c r="E340" s="9"/>
       <c r="F340" s="20"/>
-      <c r="G340" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G340" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H340" s="39"/>
       <c r="I340" s="9"/>
       <c r="J340" s="11"/>
-      <c r="K340" s="20"/>
+      <c r="K340" s="20" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A341" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C341" s="13">
-        <v>1.25</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="C341" s="13"/>
       <c r="D341" s="39">
-        <v>5</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="E341" s="9"/>
       <c r="F341" s="20"/>
-      <c r="G341" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G341" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H341" s="39"/>
       <c r="I341" s="9"/>
       <c r="J341" s="11"/>
-      <c r="K341" s="20" t="s">
-        <v>259</v>
-      </c>
+      <c r="K341" s="20"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A342" s="40"/>
+      <c r="A342" s="40">
+        <v>44835</v>
+      </c>
       <c r="B342" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="C342" s="13"/>
+        <v>262</v>
+      </c>
+      <c r="C342" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D342" s="39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E342" s="9"/>
       <c r="F342" s="20"/>
-      <c r="G342" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G342" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H342" s="39"/>
       <c r="I342" s="9"/>
       <c r="J342" s="11"/>
       <c r="K342" s="20" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C343" s="13"/>
       <c r="D343" s="39">
-        <v>0.40600000000000003</v>
+        <v>0.01</v>
       </c>
       <c r="E343" s="9"/>
       <c r="F343" s="20"/>
@@ -11359,37 +11433,45 @@
       <c r="K343" s="20"/>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A344" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B344" s="20"/>
-      <c r="C344" s="13"/>
-      <c r="D344" s="39"/>
+      <c r="A344" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B344" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C344" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D344" s="39">
+        <v>5</v>
+      </c>
       <c r="E344" s="9"/>
       <c r="F344" s="20"/>
-      <c r="G344" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G344" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H344" s="39"/>
       <c r="I344" s="9"/>
       <c r="J344" s="11"/>
-      <c r="K344" s="20"/>
+      <c r="K344" s="20" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A345" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B345" s="20"/>
-      <c r="C345" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D345" s="39"/>
+      <c r="A345" s="40"/>
+      <c r="B345" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C345" s="13"/>
+      <c r="D345" s="39">
+        <v>0.34399999999999997</v>
+      </c>
       <c r="E345" s="9"/>
       <c r="F345" s="20"/>
-      <c r="G345" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G345" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H345" s="39"/>
       <c r="I345" s="9"/>
@@ -11398,10 +11480,10 @@
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
-        <v>44958</v>
+        <v>44896</v>
       </c>
       <c r="B346" s="20" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C346" s="13">
         <v>1.25</v>
@@ -11419,43 +11501,45 @@
       <c r="I346" s="9"/>
       <c r="J346" s="11"/>
       <c r="K346" s="20" t="s">
-        <v>59</v>
+        <v>273</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A347" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B347" s="20"/>
-      <c r="C347" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D347" s="39"/>
+      <c r="A347" s="40"/>
+      <c r="B347" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C347" s="13"/>
+      <c r="D347" s="39">
+        <v>4</v>
+      </c>
       <c r="E347" s="9"/>
       <c r="F347" s="20"/>
-      <c r="G347" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G347" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H347" s="39"/>
       <c r="I347" s="9"/>
       <c r="J347" s="11"/>
-      <c r="K347" s="20"/>
+      <c r="K347" s="20" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A348" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B348" s="20"/>
-      <c r="C348" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D348" s="39"/>
+      <c r="A348" s="40"/>
+      <c r="B348" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C348" s="13"/>
+      <c r="D348" s="39">
+        <v>0.40600000000000003</v>
+      </c>
       <c r="E348" s="9"/>
       <c r="F348" s="20"/>
-      <c r="G348" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G348" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H348" s="39"/>
       <c r="I348" s="9"/>
@@ -11463,19 +11547,17 @@
       <c r="K348" s="20"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A349" s="40">
-        <v>45047</v>
+      <c r="A349" s="48" t="s">
+        <v>57</v>
       </c>
       <c r="B349" s="20"/>
-      <c r="C349" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C349" s="13"/>
       <c r="D349" s="39"/>
       <c r="E349" s="9"/>
       <c r="F349" s="20"/>
-      <c r="G349" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G349" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H349" s="39"/>
       <c r="I349" s="9"/>
@@ -11484,11 +11566,9 @@
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B350" s="20" t="s">
-        <v>47</v>
-      </c>
+        <v>44927</v>
+      </c>
+      <c r="B350" s="20"/>
       <c r="C350" s="13">
         <v>1.25</v>
       </c>
@@ -11502,40 +11582,48 @@
       <c r="H350" s="39"/>
       <c r="I350" s="9"/>
       <c r="J350" s="11"/>
-      <c r="K350" s="20" t="s">
-        <v>257</v>
-      </c>
+      <c r="K350" s="20"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B351" s="20"/>
-      <c r="C351" s="13"/>
-      <c r="D351" s="39"/>
+        <v>44958</v>
+      </c>
+      <c r="B351" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C351" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D351" s="39">
+        <v>5</v>
+      </c>
       <c r="E351" s="9"/>
       <c r="F351" s="20"/>
-      <c r="G351" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G351" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H351" s="39"/>
       <c r="I351" s="9"/>
       <c r="J351" s="11"/>
-      <c r="K351" s="20"/>
+      <c r="K351" s="20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
-        <v>45139</v>
+        <v>44986</v>
       </c>
       <c r="B352" s="20"/>
-      <c r="C352" s="13"/>
+      <c r="C352" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D352" s="39"/>
       <c r="E352" s="9"/>
       <c r="F352" s="20"/>
-      <c r="G352" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G352" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H352" s="39"/>
       <c r="I352" s="9"/>
@@ -11544,16 +11632,18 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
-        <v>45170</v>
+        <v>45017</v>
       </c>
       <c r="B353" s="20"/>
-      <c r="C353" s="13"/>
+      <c r="C353" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D353" s="39"/>
       <c r="E353" s="9"/>
       <c r="F353" s="20"/>
-      <c r="G353" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G353" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H353" s="39"/>
       <c r="I353" s="9"/>
@@ -11562,16 +11652,18 @@
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
-        <v>45200</v>
+        <v>45047</v>
       </c>
       <c r="B354" s="20"/>
-      <c r="C354" s="13"/>
+      <c r="C354" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D354" s="39"/>
       <c r="E354" s="9"/>
       <c r="F354" s="20"/>
-      <c r="G354" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G354" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H354" s="39"/>
       <c r="I354" s="9"/>
@@ -11580,25 +11672,31 @@
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B355" s="20"/>
-      <c r="C355" s="13"/>
+        <v>45078</v>
+      </c>
+      <c r="B355" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C355" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D355" s="39"/>
       <c r="E355" s="9"/>
       <c r="F355" s="20"/>
-      <c r="G355" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G355" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H355" s="39"/>
       <c r="I355" s="9"/>
       <c r="J355" s="11"/>
-      <c r="K355" s="20"/>
+      <c r="K355" s="20" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
-        <v>45261</v>
+        <v>45108</v>
       </c>
       <c r="B356" s="20"/>
       <c r="C356" s="13"/>
@@ -11616,7 +11714,7 @@
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
-        <v>45292</v>
+        <v>45139</v>
       </c>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
@@ -11634,7 +11732,7 @@
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
-        <v>45323</v>
+        <v>45170</v>
       </c>
       <c r="B358" s="20"/>
       <c r="C358" s="13"/>
@@ -11652,7 +11750,7 @@
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
-        <v>45352</v>
+        <v>45200</v>
       </c>
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
@@ -11670,7 +11768,7 @@
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
-        <v>45383</v>
+        <v>45231</v>
       </c>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
@@ -11688,7 +11786,7 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
-        <v>45413</v>
+        <v>45261</v>
       </c>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
@@ -11706,7 +11804,7 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
-        <v>45444</v>
+        <v>45292</v>
       </c>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
@@ -11724,7 +11822,7 @@
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
-        <v>45474</v>
+        <v>45323</v>
       </c>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
@@ -11742,7 +11840,7 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
-        <v>45505</v>
+        <v>45352</v>
       </c>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
@@ -11760,7 +11858,7 @@
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
-        <v>45536</v>
+        <v>45383</v>
       </c>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
@@ -11778,7 +11876,7 @@
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
-        <v>45566</v>
+        <v>45413</v>
       </c>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
@@ -11796,7 +11894,7 @@
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
-        <v>45597</v>
+        <v>45444</v>
       </c>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
@@ -11814,7 +11912,7 @@
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
-        <v>45627</v>
+        <v>45474</v>
       </c>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -11832,7 +11930,7 @@
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
-        <v>45658</v>
+        <v>45505</v>
       </c>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -11850,7 +11948,7 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
-        <v>45689</v>
+        <v>45536</v>
       </c>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -11868,7 +11966,7 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
-        <v>45717</v>
+        <v>45566</v>
       </c>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -11886,7 +11984,7 @@
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
-        <v>45748</v>
+        <v>45597</v>
       </c>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -11904,7 +12002,7 @@
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
-        <v>45778</v>
+        <v>45627</v>
       </c>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -11922,7 +12020,7 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
-        <v>45809</v>
+        <v>45658</v>
       </c>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -11940,7 +12038,7 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
-        <v>45839</v>
+        <v>45689</v>
       </c>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -11958,7 +12056,7 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
-        <v>45870</v>
+        <v>45717</v>
       </c>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -11976,7 +12074,7 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
-        <v>45901</v>
+        <v>45748</v>
       </c>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -11994,7 +12092,7 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
-        <v>45931</v>
+        <v>45778</v>
       </c>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -12012,7 +12110,7 @@
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
-        <v>45962</v>
+        <v>45809</v>
       </c>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -12030,7 +12128,7 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
-        <v>45992</v>
+        <v>45839</v>
       </c>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -12048,7 +12146,7 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
-        <v>46023</v>
+        <v>45870</v>
       </c>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -12066,7 +12164,7 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
-        <v>46054</v>
+        <v>45901</v>
       </c>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -12084,7 +12182,7 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
-        <v>46082</v>
+        <v>45931</v>
       </c>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -12102,7 +12200,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
-        <v>46113</v>
+        <v>45962</v>
       </c>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -12120,7 +12218,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
-        <v>46143</v>
+        <v>45992</v>
       </c>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -12138,7 +12236,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
-        <v>46174</v>
+        <v>46023</v>
       </c>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -12156,7 +12254,7 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
-        <v>46204</v>
+        <v>46054</v>
       </c>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -12174,7 +12272,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
-        <v>46235</v>
+        <v>46082</v>
       </c>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -12192,7 +12290,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
-        <v>46266</v>
+        <v>46113</v>
       </c>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -12210,7 +12308,7 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
-        <v>46296</v>
+        <v>46143</v>
       </c>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -12228,7 +12326,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
-        <v>46327</v>
+        <v>46174</v>
       </c>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -12246,7 +12344,7 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
-        <v>46357</v>
+        <v>46204</v>
       </c>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -12264,7 +12362,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
-        <v>46388</v>
+        <v>46235</v>
       </c>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -12282,7 +12380,7 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
-        <v>46419</v>
+        <v>46266</v>
       </c>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -12299,7 +12397,9 @@
       <c r="K394" s="20"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A395" s="40"/>
+      <c r="A395" s="40">
+        <v>46296</v>
+      </c>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
       <c r="D395" s="39"/>
@@ -12315,7 +12415,9 @@
       <c r="K395" s="20"/>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A396" s="40"/>
+      <c r="A396" s="40">
+        <v>46327</v>
+      </c>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
       <c r="D396" s="39"/>
@@ -12331,7 +12433,9 @@
       <c r="K396" s="20"/>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A397" s="40"/>
+      <c r="A397" s="40">
+        <v>46357</v>
+      </c>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
       <c r="D397" s="39"/>
@@ -12347,7 +12451,9 @@
       <c r="K397" s="20"/>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A398" s="40"/>
+      <c r="A398" s="40">
+        <v>46388</v>
+      </c>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
       <c r="D398" s="39"/>
@@ -12363,7 +12469,9 @@
       <c r="K398" s="20"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A399" s="40"/>
+      <c r="A399" s="40">
+        <v>46419</v>
+      </c>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
       <c r="D399" s="39"/>
@@ -12443,20 +12551,100 @@
       <c r="K403" s="20"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A404" s="41"/>
-      <c r="B404" s="15"/>
-      <c r="C404" s="42"/>
-      <c r="D404" s="43"/>
+      <c r="A404" s="40"/>
+      <c r="B404" s="20"/>
+      <c r="C404" s="13"/>
+      <c r="D404" s="39"/>
       <c r="E404" s="9"/>
-      <c r="F404" s="15"/>
-      <c r="G404" s="42" t="str">
+      <c r="F404" s="20"/>
+      <c r="G404" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H404" s="43"/>
+      <c r="H404" s="39"/>
       <c r="I404" s="9"/>
-      <c r="J404" s="12"/>
-      <c r="K404" s="15"/>
+      <c r="J404" s="11"/>
+      <c r="K404" s="20"/>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A405" s="40"/>
+      <c r="B405" s="20"/>
+      <c r="C405" s="13"/>
+      <c r="D405" s="39"/>
+      <c r="E405" s="9"/>
+      <c r="F405" s="20"/>
+      <c r="G405" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H405" s="39"/>
+      <c r="I405" s="9"/>
+      <c r="J405" s="11"/>
+      <c r="K405" s="20"/>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A406" s="40"/>
+      <c r="B406" s="20"/>
+      <c r="C406" s="13"/>
+      <c r="D406" s="39"/>
+      <c r="E406" s="9"/>
+      <c r="F406" s="20"/>
+      <c r="G406" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H406" s="39"/>
+      <c r="I406" s="9"/>
+      <c r="J406" s="11"/>
+      <c r="K406" s="20"/>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A407" s="40"/>
+      <c r="B407" s="20"/>
+      <c r="C407" s="13"/>
+      <c r="D407" s="39"/>
+      <c r="E407" s="9"/>
+      <c r="F407" s="20"/>
+      <c r="G407" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H407" s="39"/>
+      <c r="I407" s="9"/>
+      <c r="J407" s="11"/>
+      <c r="K407" s="20"/>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A408" s="40"/>
+      <c r="B408" s="20"/>
+      <c r="C408" s="13"/>
+      <c r="D408" s="39"/>
+      <c r="E408" s="9"/>
+      <c r="F408" s="20"/>
+      <c r="G408" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H408" s="39"/>
+      <c r="I408" s="9"/>
+      <c r="J408" s="11"/>
+      <c r="K408" s="20"/>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A409" s="41"/>
+      <c r="B409" s="15"/>
+      <c r="C409" s="42"/>
+      <c r="D409" s="43"/>
+      <c r="E409" s="9"/>
+      <c r="F409" s="15"/>
+      <c r="G409" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H409" s="43"/>
+      <c r="I409" s="9"/>
+      <c r="J409" s="12"/>
+      <c r="K409" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12574,14 +12762,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.34399999999999997</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -12630,7 +12818,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>236.34499999999997</v>
+        <v>211.16899999999993</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
